--- a/Atividades/Atividade_11_09_2023_Corrigido.xlsx
+++ b/Atividades/Atividade_11_09_2023_Corrigido.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B870D7E-21A9-43D2-A226-FE3AC65756E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BDiniz\Documents\code\Github\brlpdiniz\UTP\engenharia-software\Atividades\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F7D595-EE22-4530-A23D-ECD3B6587F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="110">
   <si>
     <t>Bruno Leandro Diniz
 Lucas Alush Barletta
 Ygor Lopes Nakonieczni</t>
-  </si>
-  <si>
-    <t>Descritivo dos Requisitos</t>
   </si>
   <si>
     <t>Código</t>
@@ -467,12 +469,60 @@
   <si>
     <t>Recursos de carrinho de compras, pagamento online e rastreamento de pedidos.</t>
   </si>
+  <si>
+    <t>Volátil</t>
+  </si>
+  <si>
+    <t>2 ª ETAPA DO ESTUDO DIRIGIDO - REQUISITOS ALICIADOS</t>
+  </si>
+  <si>
+    <t>Médio</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>O sistema deve garantir desempenho eficiente, processando múltiplas transações simultâneas, oferecendo suporte ao atendimento do cliente com integração aprimorada com um bate papo ao vivo e monitoramento em tempo real</t>
+  </si>
+  <si>
+    <t>2 ª ETAPA DO ESTUDO DIRIGIDO - ALICIANDO REQUISITOS</t>
+  </si>
+  <si>
+    <t>O sistema deve ser capaz de lidar com múltiplas transações e consultas de clientes de forma eficiente</t>
+  </si>
+  <si>
+    <t>Não funcional - Desempenho</t>
+  </si>
+  <si>
+    <t>A empresa necessitará de um sistema de help online a fim de auxiliar os vendedores nos primeiros momentos de transição do sistema bem como treinamento para novos vendedores.</t>
+  </si>
+  <si>
+    <t>Não funcional - Usabilidade</t>
+  </si>
+  <si>
+    <t>RNF08</t>
+  </si>
+  <si>
+    <t>RNF09</t>
+  </si>
+  <si>
+    <t>O Sistema de suporte online deve incluir treinamentos presenciais com o apoio de vendedores experientes, abordando questões de comunicação entre vendedores e suporte técnico, além de fornecer relatórios de uso e progresso para avaliar a eficácia do treinamento</t>
+  </si>
+  <si>
+    <t>1 ª ETAPA DO ESTUDO DIRIGIDO - LEVANTAMENTO DE REQUISITOS</t>
+  </si>
+  <si>
+    <t>Não funcional - Confiabilidade</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir a implantação de uma loja virtual com funcionalidade de venda na web, visando expandir o alcance do negócio para atingir um público online mais amplo e proporcionar uma opção de compra conveniente para os clientes existentes, incluindo recurso de carrinho de compras, pagamento online e rastreamento de pedidos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -574,11 +624,29 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="URW Bookman"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -643,7 +711,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -808,6 +876,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -830,7 +935,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -847,9 +952,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -863,6 +965,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -883,9 +988,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -898,7 +1000,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1005,7 +1119,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1301,24 +1415,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI1048539"/>
+  <dimension ref="A1:AMI1048505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="102.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="39.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" style="2" customWidth="1"/>
     <col min="6" max="7" width="20.7109375" style="2" customWidth="1"/>
     <col min="8" max="1023" width="12.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="65.25" customHeight="1">
+    <row r="1" spans="1:7" ht="65.25" customHeight="1" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1329,725 +1444,1143 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7" ht="42.6" customHeight="1">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:7" ht="42.6" customHeight="1" thickBot="1">
+      <c r="A2" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" ht="60" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="60" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="56.65" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="56.65" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="56.65" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="56.65" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="56.65" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="56.65" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="56.65" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="56.65" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="56.65" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="56.65" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="56.65" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="56.65" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="56.65" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="56.65" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="56.65" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="56.65" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="56.65" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="56.65" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="56.65" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="56.65" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="56.65" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="56.65" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="56.65" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="56.65" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="56.65" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" ht="45" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" ht="30" customHeight="1">
-      <c r="A34" s="4"/>
-      <c r="B34" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" ht="30" customHeight="1">
-      <c r="A35" s="4"/>
-      <c r="B35" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1">
-      <c r="A36" s="4"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" ht="30" customHeight="1">
-      <c r="A37" s="4"/>
-      <c r="B37" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" ht="30" customHeight="1">
-      <c r="A38" s="4"/>
-      <c r="B38" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" ht="30" customHeight="1">
+        <v>101</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="56.65" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A31" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:7" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="A32" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="56.85" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="56.85" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="56.85" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A38" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" ht="30" customHeight="1">
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" ht="45" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="9" t="s">
-        <v>77</v>
+      <c r="B40" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" ht="30" customHeight="1">
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="10" t="s">
-        <v>78</v>
+      <c r="B41" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" ht="30" customHeight="1">
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="11" t="s">
-        <v>79</v>
+      <c r="B42" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" ht="23.25" customHeight="1">
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" ht="45" customHeight="1">
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="23" t="s">
-        <v>80</v>
+      <c r="B44" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" ht="30" customHeight="1">
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" ht="30" customHeight="1">
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="B46" s="9"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" ht="30" customHeight="1">
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1">
       <c r="A47" s="4"/>
-      <c r="B47" s="10"/>
+      <c r="B47" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" ht="30" customHeight="1">
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" ht="30" customHeight="1">
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" customHeight="1">
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="1:7" ht="23.25" customHeight="1">
       <c r="A50" s="4"/>
-      <c r="B50" s="10"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" ht="30" customHeight="1">
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="1:7" ht="45" customHeight="1">
       <c r="A51" s="4"/>
-      <c r="B51" s="9" t="s">
-        <v>85</v>
+      <c r="B51" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" ht="30" customHeight="1">
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:7" ht="30" customHeight="1">
       <c r="A52" s="4"/>
-      <c r="B52" s="11" t="s">
-        <v>86</v>
+      <c r="B52" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" ht="23.25" customHeight="1">
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7" ht="30" customHeight="1">
       <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" ht="45" customHeight="1">
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:7" ht="30" customHeight="1">
       <c r="A54" s="4"/>
-      <c r="B54" s="23" t="s">
-        <v>87</v>
-      </c>
+      <c r="B54" s="9"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" ht="30" customHeight="1">
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1">
       <c r="A55" s="4"/>
-      <c r="B55" s="9" t="s">
-        <v>88</v>
+      <c r="B55" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" ht="30" customHeight="1">
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" spans="1:7" ht="30" customHeight="1">
       <c r="A56" s="4"/>
-      <c r="B56" s="10" t="s">
-        <v>89</v>
+      <c r="B56" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" ht="30" customHeight="1">
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57" spans="1:7" ht="30" customHeight="1">
       <c r="A57" s="4"/>
-      <c r="B57" s="10"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" ht="30" customHeight="1">
-      <c r="B58" s="9" t="s">
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="1:7" ht="30" customHeight="1">
+      <c r="A58" s="4"/>
+      <c r="B58" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+    </row>
+    <row r="59" spans="1:7" ht="30" customHeight="1">
+      <c r="A59" s="4"/>
+      <c r="B59" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+    </row>
+    <row r="61" spans="1:7" ht="45" customHeight="1">
+      <c r="A61" s="4"/>
+      <c r="B61" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62" spans="1:7" ht="30" customHeight="1">
+      <c r="A62" s="4"/>
+      <c r="B62" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="1:7" ht="30" customHeight="1">
+      <c r="A63" s="4"/>
+      <c r="B63" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+    </row>
+    <row r="64" spans="1:7" ht="30" customHeight="1">
+      <c r="A64" s="4"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+    </row>
+    <row r="65" spans="2:7" ht="30" customHeight="1">
+      <c r="B65" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+    </row>
+    <row r="66" spans="2:7" ht="30" customHeight="1">
+      <c r="B66" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="30" customHeight="1">
-      <c r="B59" s="10" t="s">
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+    </row>
+    <row r="67" spans="2:7" ht="30" customHeight="1">
+      <c r="B67" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="30" customHeight="1">
-      <c r="B60" s="10" t="s">
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+    </row>
+    <row r="68" spans="2:7" ht="30" customHeight="1">
+      <c r="B68" s="9"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+    </row>
+    <row r="69" spans="2:7" ht="30" customHeight="1">
+      <c r="B69" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="30" customHeight="1">
-      <c r="B61" s="10"/>
-    </row>
-    <row r="62" spans="1:4" ht="30" customHeight="1">
-      <c r="B62" s="9" t="s">
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+    </row>
+    <row r="70" spans="2:7" ht="30" customHeight="1" thickBot="1">
+      <c r="B70" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="30" customHeight="1">
-      <c r="B63" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="23.25" customHeight="1"/>
-    <row r="65" ht="23.25" customHeight="1"/>
-    <row r="66" ht="23.25" customHeight="1"/>
-    <row r="67" ht="23.25" customHeight="1"/>
-    <row r="68" ht="23.25" customHeight="1"/>
-    <row r="69" ht="23.25" customHeight="1"/>
-    <row r="70" ht="23.25" customHeight="1"/>
-    <row r="71" ht="23.25" customHeight="1"/>
-    <row r="1048538"/>
-    <row r="1048539"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+    </row>
+    <row r="71" spans="2:7" ht="12.75" customHeight="1">
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+    </row>
+    <row r="72" spans="2:7" ht="12.75" customHeight="1">
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+    </row>
+    <row r="73" spans="2:7" ht="12.75" customHeight="1">
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+    </row>
+    <row r="74" spans="2:7" ht="12.75" customHeight="1">
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+    </row>
+    <row r="75" spans="2:7" ht="12.75" customHeight="1">
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+    </row>
+    <row r="76" spans="2:7" ht="12.75" customHeight="1">
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+    </row>
+    <row r="77" spans="2:7" ht="12.75" customHeight="1">
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+    </row>
+    <row r="78" spans="2:7" ht="12.75" customHeight="1">
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+    </row>
+    <row r="79" spans="2:7" ht="12.75" customHeight="1">
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+    </row>
+    <row r="80" spans="2:7" ht="12.75" customHeight="1">
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+    </row>
+    <row r="81" spans="6:7" ht="12.75" customHeight="1">
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+    </row>
+    <row r="82" spans="6:7" ht="12.75" customHeight="1">
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+    </row>
+    <row r="83" spans="6:7" ht="12.75" customHeight="1">
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+    </row>
+    <row r="84" spans="6:7" ht="12.75" customHeight="1">
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+    </row>
+    <row r="85" spans="6:7" ht="12.75" customHeight="1">
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+    </row>
+    <row r="86" spans="6:7" ht="12.75" customHeight="1">
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+    </row>
+    <row r="87" spans="6:7" ht="12.75" customHeight="1">
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+    </row>
+    <row r="88" spans="6:7" ht="12.75" customHeight="1">
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+    </row>
+    <row r="89" spans="6:7" ht="12.75" customHeight="1">
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+    </row>
+    <row r="1048504"/>
+    <row r="1048505"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="16">
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:G32"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
   </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -2056,12 +2589,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010064D3224A9D5FA34480CDF2A82B2CEBD6" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20df73d375e4d647528312551b66d845">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="065bfa9c-086b-4342-9f95-2b7c135fd06b" xmlns:ns3="c1527765-ead9-4985-ae14-255d4b687692" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fad091e9c4676885df08ad9ebd322a1c" ns2:_="" ns3:_="">
     <xsd:import namespace="065bfa9c-086b-4342-9f95-2b7c135fd06b"/>
@@ -2232,6 +2759,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2242,13 +2775,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1238770A-56AB-4E66-B5BE-3861C08A8628}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12CC31DF-6FC1-4908-A515-F9F399CFDC84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="065bfa9c-086b-4342-9f95-2b7c135fd06b"/>
+    <ds:schemaRef ds:uri="c1527765-ead9-4985-ae14-255d4b687692"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12CC31DF-6FC1-4908-A515-F9F399CFDC84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1238770A-56AB-4E66-B5BE-3861C08A8628}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31BBE1F-A0E5-4763-BBC0-DA6AFB956992}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31BBE1F-A0E5-4763-BBC0-DA6AFB956992}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Atividades/Atividade_11_09_2023_Corrigido.xlsx
+++ b/Atividades/Atividade_11_09_2023_Corrigido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BDiniz\Documents\code\Github\brlpdiniz\UTP\engenharia-software\Atividades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F7D595-EE22-4530-A23D-ECD3B6587F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC79AC97-EF4A-4D0C-9EC0-378CE5AC2774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,6 +46,9 @@
 Ygor Lopes Nakonieczni</t>
   </si>
   <si>
+    <t>1 ª ETAPA DO ESTUDO DIRIGIDO - LEVANTAMENTO DE REQUISITOS</t>
+  </si>
+  <si>
     <t>Código</t>
   </si>
   <si>
@@ -83,6 +86,12 @@
     <t>Funcional</t>
   </si>
   <si>
+    <t>Estável</t>
+  </si>
+  <si>
+    <t>Baixo</t>
+  </si>
+  <si>
     <t>RF02</t>
   </si>
   <si>
@@ -107,6 +116,9 @@
     <t>Funcionário/Atendente</t>
   </si>
   <si>
+    <t>Médio</t>
+  </si>
+  <si>
     <t>RF05</t>
   </si>
   <si>
@@ -134,6 +146,9 @@
     <t>Cliente</t>
   </si>
   <si>
+    <t>Volátil</t>
+  </si>
+  <si>
     <t>RF09</t>
   </si>
   <si>
@@ -182,12 +197,6 @@
     <t>A nota fiscal poderá apresentar a compra de mais de um produto</t>
   </si>
   <si>
-    <t>Estável</t>
-  </si>
-  <si>
-    <t>Baixo</t>
-  </si>
-  <si>
     <t>RF16</t>
   </si>
   <si>
@@ -206,6 +215,9 @@
     <t>Não funcional/Inverso – Produto – Produto</t>
   </si>
   <si>
+    <t>Alto</t>
+  </si>
+  <si>
     <t>RNF02</t>
   </si>
   <si>
@@ -255,6 +267,42 @@
   </si>
   <si>
     <t>O sistema deverá ter uma rotina automatizada de backup em nuvem</t>
+  </si>
+  <si>
+    <t>RNF08</t>
+  </si>
+  <si>
+    <t>O sistema deve ser capaz de lidar com múltiplas transações e consultas de clientes de forma eficiente</t>
+  </si>
+  <si>
+    <t>Não funcional - Desempenho</t>
+  </si>
+  <si>
+    <t>RNF09</t>
+  </si>
+  <si>
+    <t>A empresa necessitará de um sistema de help online a fim de auxiliar os vendedores nos primeiros momentos de transição do sistema bem como treinamento para novos vendedores.</t>
+  </si>
+  <si>
+    <t>Não funcional - Usabilidade</t>
+  </si>
+  <si>
+    <t>2 ª ETAPA DO ESTUDO DIRIGIDO - REQUISITOS ALICIADOS</t>
+  </si>
+  <si>
+    <t>O sistema deve garantir desempenho eficiente, processando múltiplas transações simultâneas, oferecendo suporte ao atendimento do cliente com integração aprimorada com um bate papo ao vivo e monitoramento em tempo real</t>
+  </si>
+  <si>
+    <t>O Sistema de suporte online deve incluir treinamentos presenciais com o apoio de vendedores experientes, abordando questões de comunicação entre vendedores e suporte técnico, além de fornecer relatórios de uso e progresso para avaliar a eficácia do treinamento</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir a implantação de uma loja virtual com funcionalidade de venda na web, visando expandir o alcance do negócio para atingir um público online mais amplo e proporcionar uma opção de compra conveniente para os clientes existentes, incluindo recurso de carrinho de compras, pagamento online e rastreamento de pedidos</t>
+  </si>
+  <si>
+    <t>Não funcional - Confiabilidade</t>
+  </si>
+  <si>
+    <t>2 ª ETAPA DO ESTUDO DIRIGIDO - ALICIANDO REQUISITOS</t>
   </si>
   <si>
     <t>1º Requisito: O sistema deve ser capaz de lidar com múltiplas transações e consultas de clientes de forma eficiente.</t>
@@ -468,54 +516,6 @@
   </si>
   <si>
     <t>Recursos de carrinho de compras, pagamento online e rastreamento de pedidos.</t>
-  </si>
-  <si>
-    <t>Volátil</t>
-  </si>
-  <si>
-    <t>2 ª ETAPA DO ESTUDO DIRIGIDO - REQUISITOS ALICIADOS</t>
-  </si>
-  <si>
-    <t>Médio</t>
-  </si>
-  <si>
-    <t>Alto</t>
-  </si>
-  <si>
-    <t>O sistema deve garantir desempenho eficiente, processando múltiplas transações simultâneas, oferecendo suporte ao atendimento do cliente com integração aprimorada com um bate papo ao vivo e monitoramento em tempo real</t>
-  </si>
-  <si>
-    <t>2 ª ETAPA DO ESTUDO DIRIGIDO - ALICIANDO REQUISITOS</t>
-  </si>
-  <si>
-    <t>O sistema deve ser capaz de lidar com múltiplas transações e consultas de clientes de forma eficiente</t>
-  </si>
-  <si>
-    <t>Não funcional - Desempenho</t>
-  </si>
-  <si>
-    <t>A empresa necessitará de um sistema de help online a fim de auxiliar os vendedores nos primeiros momentos de transição do sistema bem como treinamento para novos vendedores.</t>
-  </si>
-  <si>
-    <t>Não funcional - Usabilidade</t>
-  </si>
-  <si>
-    <t>RNF08</t>
-  </si>
-  <si>
-    <t>RNF09</t>
-  </si>
-  <si>
-    <t>O Sistema de suporte online deve incluir treinamentos presenciais com o apoio de vendedores experientes, abordando questões de comunicação entre vendedores e suporte técnico, além de fornecer relatórios de uso e progresso para avaliar a eficácia do treinamento</t>
-  </si>
-  <si>
-    <t>1 ª ETAPA DO ESTUDO DIRIGIDO - LEVANTAMENTO DE REQUISITOS</t>
-  </si>
-  <si>
-    <t>Não funcional - Confiabilidade</t>
-  </si>
-  <si>
-    <t>O sistema deve permitir a implantação de uma loja virtual com funcionalidade de venda na web, visando expandir o alcance do negócio para atingir um público online mais amplo e proporcionar uma opção de compra conveniente para os clientes existentes, incluindo recurso de carrinho de compras, pagamento online e rastreamento de pedidos</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -867,17 +867,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -913,6 +902,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -935,7 +964,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -958,17 +987,59 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -988,6 +1059,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -998,21 +1078,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1116,6 +1181,290 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1CE9D2-CED7-AC6A-09A8-B02F9A64D9E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7552765" y="24940932"/>
+          <a:ext cx="3888441" cy="3962400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB9286A-4889-8D33-8442-64E1A158DF3E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1E1CE9D2-CED7-AC6A-09A8-B02F9A64D9E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11439525" y="24888825"/>
+          <a:ext cx="6524625" cy="3952875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A72FB6A-A3FA-9136-4E1F-1D850A92A6E6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4BB9286A-4889-8D33-8442-64E1A158DF3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="29175075"/>
+          <a:ext cx="3267075" cy="3571875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F280A66-0F8E-E25D-7A6D-5652018933B6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6A72FB6A-A3FA-9136-4E1F-1D850A92A6E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="29175075"/>
+          <a:ext cx="7134225" cy="3571875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4AF10D0-7D47-41E8-3F6B-2643A4D4C6A3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5F280A66-0F8E-E25D-7A6D-5652018933B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="33089850"/>
+          <a:ext cx="3667125" cy="3962400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1504950</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCECF92-2AD9-40BA-43A6-BFBF38B64B3B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D4AF10D0-7D47-41E8-3F6B-2643A4D4C6A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11220450" y="33089850"/>
+          <a:ext cx="6734175" cy="3962400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1418,8 +1767,8 @@
   <dimension ref="A1:AMI1048505"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <pane ySplit="4" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -1434,1128 +1783,1170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="42.6" customHeight="1" thickBot="1">
-      <c r="A2" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="F3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="56.65" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="56.65" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="56.65" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="56.65" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="56.65" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="56.65" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="56.65" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="56.65" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="56.65" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="56.65" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="56.65" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="56.65" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="56.65" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56.65" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="56.65" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="56.65" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="56.65" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="56.65" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="56.65" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="56.65" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="56.65" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="56.65" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="56.65" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="56.65" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="56.65" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A31" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="A31" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
     </row>
     <row r="32" spans="1:7" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A32" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="B32" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="C32" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="D32" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="E32" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:7" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="13"/>
+      <c r="F32" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="A33" s="27"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="56.85" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="56.85" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="56.85" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="56.85" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="56.85" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="56.85" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A38" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-    </row>
-    <row r="39" spans="1:7" ht="23.25" customHeight="1" thickBot="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A38" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
+    </row>
+    <row r="39" spans="1:8" ht="23.25" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="1:7" ht="45" customHeight="1">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" ht="45" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1">
+      <c r="B40" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" ht="30" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="4"/>
+      <c r="B41" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="14"/>
       <c r="D41" s="4"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-    </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1">
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:8" ht="30" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="4"/>
+      <c r="B42" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="14"/>
       <c r="D42" s="4"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1">
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" ht="30" customHeight="1">
       <c r="A43" s="4"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="4"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="4"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1">
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:8" ht="30" customHeight="1">
       <c r="A44" s="4"/>
-      <c r="B44" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="4"/>
+      <c r="B44" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="14"/>
       <c r="D44" s="4"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:8" ht="30" customHeight="1">
       <c r="A45" s="4"/>
-      <c r="B45" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="4"/>
+      <c r="B45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="14"/>
       <c r="D45" s="4"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-    </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1">
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" ht="30" customHeight="1">
       <c r="A46" s="4"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="4"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="4"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-    </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1">
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:8" ht="30" customHeight="1">
       <c r="A47" s="4"/>
-      <c r="B47" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="4"/>
+      <c r="B47" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="14"/>
       <c r="D47" s="4"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-    </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1">
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:8" ht="30" customHeight="1">
       <c r="A48" s="4"/>
-      <c r="B48" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="4"/>
+      <c r="B48" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="14"/>
       <c r="D48" s="4"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-    </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1">
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" ht="30" customHeight="1">
       <c r="A49" s="4"/>
-      <c r="B49" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-    </row>
-    <row r="50" spans="1:7" ht="23.25" customHeight="1">
+      <c r="B49" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="1:8" ht="23.25" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-    </row>
-    <row r="51" spans="1:7" ht="45" customHeight="1">
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" ht="45" customHeight="1">
       <c r="A51" s="4"/>
-      <c r="B51" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-    </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1">
+      <c r="B51" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="1:8" ht="30" customHeight="1">
       <c r="A52" s="4"/>
-      <c r="B52" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="4"/>
+      <c r="B52" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="14"/>
       <c r="D52" s="4"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1">
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="1:8" ht="30" customHeight="1">
       <c r="A53" s="4"/>
-      <c r="B53" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="4"/>
+      <c r="B53" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="14"/>
       <c r="D53" s="4"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-    </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1">
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="1:8" ht="30" customHeight="1">
       <c r="A54" s="4"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="4"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="4"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-    </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1">
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:8" ht="30" customHeight="1">
       <c r="A55" s="4"/>
-      <c r="B55" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="4"/>
+      <c r="B55" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="14"/>
       <c r="D55" s="4"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-    </row>
-    <row r="56" spans="1:7" ht="30" customHeight="1">
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="1:8" ht="30" customHeight="1">
       <c r="A56" s="4"/>
-      <c r="B56" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="4"/>
+      <c r="B56" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="14"/>
       <c r="D56" s="4"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-    </row>
-    <row r="57" spans="1:7" ht="30" customHeight="1">
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:8" ht="30" customHeight="1">
       <c r="A57" s="4"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="4"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-    </row>
-    <row r="58" spans="1:7" ht="30" customHeight="1">
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8" ht="30" customHeight="1">
       <c r="A58" s="4"/>
-      <c r="B58" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C58" s="4"/>
+      <c r="B58" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="14"/>
       <c r="D58" s="4"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-    </row>
-    <row r="59" spans="1:7" ht="30" customHeight="1">
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8" ht="30" customHeight="1">
       <c r="A59" s="4"/>
-      <c r="B59" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-    </row>
-    <row r="60" spans="1:7" ht="23.25" customHeight="1">
+      <c r="B59" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="20"/>
+    </row>
+    <row r="60" spans="1:8" ht="23.25" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-    </row>
-    <row r="61" spans="1:7" ht="45" customHeight="1">
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" ht="45" customHeight="1">
       <c r="A61" s="4"/>
-      <c r="B61" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-    </row>
-    <row r="62" spans="1:7" ht="30" customHeight="1">
+      <c r="B61" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="1:8" ht="30" customHeight="1">
       <c r="A62" s="4"/>
-      <c r="B62" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" s="4"/>
+      <c r="B62" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="14"/>
       <c r="D62" s="4"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-    </row>
-    <row r="63" spans="1:7" ht="30" customHeight="1">
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:8" ht="30" customHeight="1">
       <c r="A63" s="4"/>
-      <c r="B63" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="4"/>
+      <c r="B63" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="14"/>
       <c r="D63" s="4"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-    </row>
-    <row r="64" spans="1:7" ht="30" customHeight="1">
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="1:8" ht="30" customHeight="1">
       <c r="A64" s="4"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="4"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
       <c r="D64" s="4"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-    </row>
-    <row r="65" spans="2:7" ht="30" customHeight="1">
-      <c r="B65" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-    </row>
-    <row r="66" spans="2:7" ht="30" customHeight="1">
-      <c r="B66" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-    </row>
-    <row r="67" spans="2:7" ht="30" customHeight="1">
-      <c r="B67" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-    </row>
-    <row r="68" spans="2:7" ht="30" customHeight="1">
-      <c r="B68" s="9"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-    </row>
-    <row r="69" spans="2:7" ht="30" customHeight="1">
-      <c r="B69" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-    </row>
-    <row r="70" spans="2:7" ht="30" customHeight="1" thickBot="1">
-      <c r="B70" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-    </row>
-    <row r="71" spans="2:7" ht="12.75" customHeight="1">
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-    </row>
-    <row r="72" spans="2:7" ht="12.75" customHeight="1">
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-    </row>
-    <row r="73" spans="2:7" ht="12.75" customHeight="1">
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-    </row>
-    <row r="74" spans="2:7" ht="12.75" customHeight="1">
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-    </row>
-    <row r="75" spans="2:7" ht="12.75" customHeight="1">
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-    </row>
-    <row r="76" spans="2:7" ht="12.75" customHeight="1">
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-    </row>
-    <row r="77" spans="2:7" ht="12.75" customHeight="1">
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-    </row>
-    <row r="78" spans="2:7" ht="12.75" customHeight="1">
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-    </row>
-    <row r="79" spans="2:7" ht="12.75" customHeight="1">
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-    </row>
-    <row r="80" spans="2:7" ht="12.75" customHeight="1">
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="2:8" ht="30" customHeight="1">
+      <c r="B65" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="2:8" ht="30" customHeight="1">
+      <c r="B66" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="2:8" ht="30" customHeight="1">
+      <c r="B67" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="2:8" ht="30" customHeight="1">
+      <c r="B68" s="14"/>
+      <c r="C68" s="24"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="2:8" ht="30" customHeight="1">
+      <c r="B69" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="2:8" ht="30" customHeight="1">
+      <c r="B70" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="20"/>
+    </row>
+    <row r="71" spans="2:8" ht="12.75" customHeight="1">
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="2:8" ht="12.75" customHeight="1">
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="2:8" ht="12.75" customHeight="1">
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="2:8" ht="12.75" customHeight="1">
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="2:8" ht="12.75" customHeight="1">
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="2:8" ht="12.75" customHeight="1">
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="2:8" ht="12.75" customHeight="1">
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="2:8" ht="12.75" customHeight="1">
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="2:8" ht="12.75" customHeight="1">
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="2:8" ht="12.75" customHeight="1">
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
     </row>
     <row r="81" spans="6:7" ht="12.75" customHeight="1">
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
     </row>
     <row r="82" spans="6:7" ht="12.75" customHeight="1">
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" spans="6:7" ht="12.75" customHeight="1">
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
     </row>
     <row r="84" spans="6:7" ht="12.75" customHeight="1">
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
     </row>
     <row r="85" spans="6:7" ht="12.75" customHeight="1">
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
     </row>
     <row r="86" spans="6:7" ht="12.75" customHeight="1">
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
     </row>
     <row r="87" spans="6:7" ht="12.75" customHeight="1">
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
     </row>
     <row r="88" spans="6:7" ht="12.75" customHeight="1">
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
     </row>
     <row r="89" spans="6:7" ht="12.75" customHeight="1">
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
     </row>
     <row r="1048504"/>
     <row r="1048505"/>
@@ -2585,10 +2976,26 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010064D3224A9D5FA34480CDF2A82B2CEBD6" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20df73d375e4d647528312551b66d845">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="065bfa9c-086b-4342-9f95-2b7c135fd06b" xmlns:ns3="c1527765-ead9-4985-ae14-255d4b687692" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fad091e9c4676885df08ad9ebd322a1c" ns2:_="" ns3:_="">
     <xsd:import namespace="065bfa9c-086b-4342-9f95-2b7c135fd06b"/>
@@ -2759,22 +3166,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1238770A-56AB-4E66-B5BE-3861C08A8628}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31BBE1F-A0E5-4763-BBC0-DA6AFB956992}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12CC31DF-6FC1-4908-A515-F9F399CFDC84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2791,21 +3200,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1238770A-56AB-4E66-B5BE-3861C08A8628}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31BBE1F-A0E5-4763-BBC0-DA6AFB956992}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>